--- a/data/4_semester.xlsx
+++ b/data/4_semester.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HOTEC_TimeTable\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7349BAB5-D088-4C79-96B2-4C03555F5509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16CA6DF1-BBE6-42E9-839E-D7223FF4A7EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -386,7 +386,7 @@
   <cols>
     <col min="1" max="1" width="18.44140625" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.88671875" customWidth="1"/>
     <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
